--- a/Cohort.xlsx
+++ b/Cohort.xlsx
@@ -159,7 +159,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -183,7 +183,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -215,6 +215,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Composition.implicitRules</t>
   </si>
   <si>
@@ -337,6 +341,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Composition.modifierExtension</t>
   </si>
   <si>
@@ -406,7 +414,7 @@
     <t>The workflow/clinical status of the composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -467,10 +475,6 @@
     <t>Composition.type.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -853,7 +857,7 @@
     <t>Codes specifying the level of confidentiality of the composition.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|4.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|2014-03-26</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -881,10 +885,6 @@
     <t>Identifies responsibility for the accuracy of the composition content.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
   </si>
   <si>
@@ -932,7 +932,7 @@
     <t>The way in which a person authenticated a composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.1</t>
   </si>
   <si>
     <t>unique(./modeCode)</t>
@@ -1057,7 +1057,7 @@
     <t>The type of relationship between documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship.typeCode</t>
@@ -1189,8 +1189,8 @@
     <t>closed</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
+    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
+cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
@@ -1310,7 +1310,7 @@
     <t>The processing mode that applies to this section.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.1</t>
   </si>
   <si>
     <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
@@ -1626,7 +1626,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="67.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.65234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.13671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -2088,7 +2088,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>41</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2131,16 +2131,16 @@
         <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2190,7 +2190,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2202,7 +2202,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>41</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2245,16 +2245,16 @@
         <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2280,13 +2280,13 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>41</v>
@@ -2304,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -2316,7 +2316,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>41</v>
@@ -2336,11 +2336,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2359,16 +2359,16 @@
         <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2418,7 +2418,7 @@
         <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -2430,13 +2430,13 @@
         <v>41</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>41</v>
@@ -2450,11 +2450,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2473,16 +2473,16 @@
         <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2532,7 +2532,7 @@
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -2550,7 +2550,7 @@
         <v>41</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>41</v>
@@ -2564,11 +2564,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2587,16 +2587,16 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2646,7 +2646,7 @@
         <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -2658,13 +2658,13 @@
         <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2678,11 +2678,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2701,19 +2701,19 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>41</v>
@@ -2762,7 +2762,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2774,13 +2774,13 @@
         <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2817,16 +2817,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2876,7 +2876,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2888,27 +2888,27 @@
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2931,19 +2931,19 @@
         <v>54</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2968,13 +2968,13 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
@@ -2992,7 +2992,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>53</v>
@@ -3004,27 +3004,27 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3047,19 +3047,19 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>41</v>
@@ -3084,13 +3084,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -3108,7 +3108,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -3120,27 +3120,27 @@
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3163,13 +3163,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3220,7 +3220,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3238,7 +3238,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -3252,11 +3252,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3275,16 +3275,16 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3322,19 +3322,19 @@
         <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3346,13 +3346,13 @@
         <v>41</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3389,19 +3389,19 @@
         <v>54</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -3450,7 +3450,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3462,13 +3462,13 @@
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3505,13 +3505,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3562,7 +3562,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3580,7 +3580,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3594,11 +3594,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3617,16 +3617,16 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3664,19 +3664,19 @@
         <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3688,13 +3688,13 @@
         <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3731,26 +3731,26 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>41</v>
@@ -3792,7 +3792,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3804,13 +3804,13 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3847,16 +3847,16 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3906,7 +3906,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3918,13 +3918,13 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3961,24 +3961,24 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -4020,7 +4020,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4032,13 +4032,13 @@
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4075,17 +4075,17 @@
         <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -4134,7 +4134,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4146,13 +4146,13 @@
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4189,19 +4189,19 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4250,7 +4250,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4262,13 +4262,13 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4305,19 +4305,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -4366,7 +4366,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4378,13 +4378,13 @@
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4421,19 +4421,19 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4458,13 +4458,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4482,7 +4482,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4494,27 +4494,27 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4537,19 +4537,19 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4598,7 +4598,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4610,27 +4610,27 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4653,17 +4653,17 @@
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4712,7 +4712,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4724,27 +4724,27 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4767,19 +4767,19 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4828,7 +4828,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>53</v>
@@ -4840,27 +4840,27 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4883,17 +4883,17 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4942,7 +4942,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>53</v>
@@ -4954,27 +4954,27 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4997,16 +4997,16 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>41</v>
@@ -5056,7 +5056,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -5068,19 +5068,19 @@
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5111,16 +5111,16 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5146,13 +5146,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -5170,7 +5170,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5182,19 +5182,19 @@
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5225,19 +5225,19 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5286,7 +5286,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5298,7 +5298,7 @@
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>41</v>
@@ -5341,13 +5341,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5398,7 +5398,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5416,7 +5416,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5453,16 +5453,16 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5512,7 +5512,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5524,13 +5524,13 @@
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5567,7 +5567,7 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>288</v>
@@ -5576,10 +5576,10 @@
         <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5640,13 +5640,13 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5683,7 +5683,7 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>292</v>
@@ -5718,7 +5718,7 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X36" t="s" s="2">
         <v>295</v>
@@ -5754,7 +5754,7 @@
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
@@ -5797,7 +5797,7 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>300</v>
@@ -5868,7 +5868,7 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
@@ -5982,7 +5982,7 @@
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
@@ -6098,7 +6098,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -6141,7 +6141,7 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>323</v>
@@ -6212,7 +6212,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
@@ -6255,13 +6255,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6312,7 +6312,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6330,7 +6330,7 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6367,16 +6367,16 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6426,7 +6426,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6438,13 +6438,13 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6481,7 +6481,7 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>288</v>
@@ -6490,10 +6490,10 @@
         <v>289</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6554,13 +6554,13 @@
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6597,7 +6597,7 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>333</v>
@@ -6632,7 +6632,7 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>336</v>
@@ -6668,7 +6668,7 @@
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
@@ -6780,7 +6780,7 @@
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>41</v>
@@ -6823,7 +6823,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>349</v>
@@ -6896,7 +6896,7 @@
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
@@ -6939,13 +6939,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6996,7 +6996,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7014,7 +7014,7 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7051,16 +7051,16 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7110,7 +7110,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7122,13 +7122,13 @@
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -7165,7 +7165,7 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>288</v>
@@ -7174,10 +7174,10 @@
         <v>289</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7238,13 +7238,13 @@
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
@@ -7281,7 +7281,7 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>360</v>
@@ -7316,7 +7316,7 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>363</v>
@@ -7352,16 +7352,16 @@
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>365</v>
@@ -7464,16 +7464,16 @@
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>370</v>
@@ -7507,7 +7507,7 @@
         <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>372</v>
@@ -7576,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
@@ -7585,7 +7585,7 @@
         <v>374</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7619,7 +7619,7 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>376</v>
@@ -7729,13 +7729,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7786,7 +7786,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7804,7 +7804,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7841,16 +7841,16 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7900,7 +7900,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7912,13 +7912,13 @@
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
@@ -7955,7 +7955,7 @@
         <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>288</v>
@@ -7964,10 +7964,10 @@
         <v>289</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -8028,13 +8028,13 @@
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -8071,7 +8071,7 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>388</v>
@@ -8144,16 +8144,16 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8187,7 +8187,7 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>393</v>
@@ -8224,7 +8224,7 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>397</v>
@@ -8260,16 +8260,16 @@
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8303,7 +8303,7 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>400</v>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
@@ -8374,22 +8374,22 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -8417,7 +8417,7 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>403</v>
@@ -8488,7 +8488,7 @@
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8531,7 +8531,7 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>408</v>
@@ -8602,7 +8602,7 @@
         <v>411</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
@@ -8645,7 +8645,7 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>414</v>
@@ -8682,7 +8682,7 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X62" t="s" s="2">
         <v>418</v>
@@ -8718,7 +8718,7 @@
         <v>41</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>41</v>
@@ -8727,13 +8727,13 @@
         <v>420</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -8761,7 +8761,7 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>422</v>
@@ -8798,7 +8798,7 @@
         <v>41</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
         <v>426</v>
@@ -8834,7 +8834,7 @@
         <v>41</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>41</v>
@@ -8843,7 +8843,7 @@
         <v>428</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8877,7 +8877,7 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>430</v>
@@ -8948,7 +8948,7 @@
         <v>433</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>41</v>
@@ -8991,7 +8991,7 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>437</v>
@@ -9028,7 +9028,7 @@
         <v>41</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
         <v>441</v>
@@ -9064,7 +9064,7 @@
         <v>433</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>41</v>
@@ -9073,7 +9073,7 @@
         <v>443</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9178,7 +9178,7 @@
         <v>411</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
@@ -9223,7 +9223,7 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>376</v>
@@ -9335,13 +9335,13 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9392,7 +9392,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9410,7 +9410,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9447,16 +9447,16 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9506,7 +9506,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9518,13 +9518,13 @@
         <v>41</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>41</v>
@@ -9561,7 +9561,7 @@
         <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>288</v>
@@ -9570,10 +9570,10 @@
         <v>289</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9634,13 +9634,13 @@
         <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
@@ -9677,7 +9677,7 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>450</v>
@@ -9750,16 +9750,16 @@
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9793,7 +9793,7 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>393</v>
@@ -9830,7 +9830,7 @@
         <v>41</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>397</v>
@@ -9866,16 +9866,16 @@
         <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9909,7 +9909,7 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>400</v>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
@@ -9980,22 +9980,22 @@
         <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -10023,7 +10023,7 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>403</v>
@@ -10094,7 +10094,7 @@
         <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>41</v>
@@ -10137,7 +10137,7 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>408</v>
@@ -10208,7 +10208,7 @@
         <v>411</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>41</v>
@@ -10251,7 +10251,7 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>414</v>
@@ -10288,7 +10288,7 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X76" t="s" s="2">
         <v>418</v>
@@ -10324,7 +10324,7 @@
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
@@ -10333,13 +10333,13 @@
         <v>420</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" hidden="true">
@@ -10367,7 +10367,7 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>422</v>
@@ -10404,7 +10404,7 @@
         <v>41</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
         <v>426</v>
@@ -10440,7 +10440,7 @@
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>41</v>
@@ -10449,7 +10449,7 @@
         <v>428</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10554,7 +10554,7 @@
         <v>433</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>41</v>
@@ -10597,7 +10597,7 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>437</v>
@@ -10634,7 +10634,7 @@
         <v>41</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>441</v>
@@ -10670,7 +10670,7 @@
         <v>433</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
@@ -10679,7 +10679,7 @@
         <v>443</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10784,7 +10784,7 @@
         <v>411</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>41</v>
@@ -10829,7 +10829,7 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>376</v>
@@ -10941,13 +10941,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10998,7 +10998,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11016,7 +11016,7 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11034,7 +11034,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11053,16 +11053,16 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11112,7 +11112,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11124,13 +11124,13 @@
         <v>41</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11167,7 +11167,7 @@
         <v>54</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>288</v>
@@ -11176,10 +11176,10 @@
         <v>289</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11240,13 +11240,13 @@
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
@@ -11283,7 +11283,7 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>455</v>
@@ -11356,16 +11356,16 @@
         <v>41</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11399,7 +11399,7 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>393</v>
@@ -11436,7 +11436,7 @@
         <v>41</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X86" t="s" s="2">
         <v>397</v>
@@ -11472,16 +11472,16 @@
         <v>41</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11515,7 +11515,7 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>400</v>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -11586,22 +11586,22 @@
         <v>41</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" hidden="true">
@@ -11629,7 +11629,7 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>403</v>
@@ -11700,7 +11700,7 @@
         <v>41</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>41</v>
@@ -11743,7 +11743,7 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>408</v>
@@ -11814,7 +11814,7 @@
         <v>411</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
@@ -11857,7 +11857,7 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>414</v>
@@ -11894,7 +11894,7 @@
         <v>41</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>418</v>
@@ -11930,7 +11930,7 @@
         <v>41</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>41</v>
@@ -11939,13 +11939,13 @@
         <v>420</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -11973,7 +11973,7 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>422</v>
@@ -12010,7 +12010,7 @@
         <v>41</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>426</v>
@@ -12046,7 +12046,7 @@
         <v>41</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>41</v>
@@ -12055,7 +12055,7 @@
         <v>428</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>41</v>
@@ -12160,7 +12160,7 @@
         <v>433</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>41</v>
@@ -12203,7 +12203,7 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>437</v>
@@ -12240,7 +12240,7 @@
         <v>41</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>441</v>
@@ -12276,7 +12276,7 @@
         <v>433</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>41</v>
@@ -12285,7 +12285,7 @@
         <v>443</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>41</v>
@@ -12390,7 +12390,7 @@
         <v>411</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>41</v>
